--- a/example.xlsx
+++ b/example.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
-    <t>Dry weight</t>
-  </si>
-  <si>
     <t>grams</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>Factor 1</t>
   </si>
   <si>
-    <t>Treatment</t>
-  </si>
-  <si>
     <t>Factor 2</t>
   </si>
   <si>
@@ -63,6 +57,12 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>Trt</t>
+  </si>
+  <si>
+    <t>Dry wt</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,41 +427,41 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -475,10 +475,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -509,10 +509,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -526,10 +526,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -543,10 +543,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>2</v>

--- a/example.xlsx
+++ b/example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian.Davis\AppData\Local\Temp\RtmpsnnZe1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian.Davis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>grams</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Dry wt</t>
+  </si>
+  <si>
+    <t>Fresh wt</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +428,7 @@
     <col min="1" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -436,10 +439,13 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -450,13 +456,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -467,13 +476,16 @@
         <v>3</v>
       </c>
       <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
         <v>20</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -484,13 +496,16 @@
         <v>5</v>
       </c>
       <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
         <v>22</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -501,13 +516,16 @@
         <v>8</v>
       </c>
       <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
         <v>21</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -518,13 +536,16 @@
         <v>4</v>
       </c>
       <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
         <v>30</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -535,13 +556,16 @@
         <v>6</v>
       </c>
       <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
         <v>31</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -552,9 +576,12 @@
         <v>2</v>
       </c>
       <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
         <v>32</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>3</v>
       </c>
     </row>
